--- a/biology/Botanique/Physostemon_guianense/Physostemon_guianense.xlsx
+++ b/biology/Botanique/Physostemon_guianense/Physostemon_guianense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Physostemon guianense est une espèce d'herbacée, appartenant à la famille des Cleomaceae (anciennement des Capparaceae).
-On l'appelle Hierba pino au Venezuela[3].
+On l'appelle Hierba pino au Venezuela.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Physostemon guianense est une espèce déterminante ZNIEFF en Guyane[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Physostemon guianense est une espèce déterminante ZNIEFF en Guyane.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Physostemon guianense est une plante herbacée annuelle, éphémère, élancée, glabre, délicate, haute de 10 à 40 cm, généralement non ramifiée à la base, à tiges anguleuses et sillonnées, avec de nombreuses branches fines, presque aussi longues.
 Les feuilles sessiles, linéaires-filiformes, mucronulées, sont toujours 1-foliolées, généralement longues de 2 à 5 cm pour à peine 0,5 mm de large.
@@ -552,7 +568,7 @@
 Les pétales sont 2 à 3 fois plus longs que les sépales.
 On compte 4 étamines fertiles et 4 apophyses stériles (les filets renflés près ou à la base des anthères).
 Ovaire et étamines sont sessiles et le style très court.
-Le fruit est une silique linéaire, longue de 1,5-2,5 cm pour 1-2 mm de large, finement pubérulente, devenant noire au sèchage. Les graines sont recouvertes de courtes pointes rugueuses[3],[5].
+Le fruit est une silique linéaire, longue de 1,5-2,5 cm pour 1-2 mm de large, finement pubérulente, devenant noire au sèchage. Les graines sont recouvertes de courtes pointes rugueuses,.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Physostemon guianense est présent du Mexique au Brésil, en passant par l'Amérique centrale, Cuba, la Colombie, le Venezuela, le Guyana, le Suriname et la Guyane[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Physostemon guianense est présent du Mexique au Brésil, en passant par l'Amérique centrale, Cuba, la Colombie, le Venezuela, le Guyana, le Suriname et la Guyane.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Physostemon guianense dans les endroits ensoleillés, sablonneux et rocheux le long des rivières, savanes, entre (0)50–300 m d'altitude[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Physostemon guianense dans les endroits ensoleillés, sablonneux et rocheux le long des rivières, savanes, entre (0)50–300 m d'altitude.
 </t>
         </is>
       </c>
@@ -643,9 +663,11 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « 1. CLEOME (Guianenſis)foliis ſimplicibus, linearibus, flore lutea ſolitario. (Tabula 273.) 
 Planta annua, ramoſa, pedalis. Folia alterna, ſeſſilia, linearia ; acuta. Flores ſolitarii, axillares. Corolla lutea. Stamina ; filamenta ſex. Piſtillum ; germen ovato-oblongum. Stigma obtuſum. Pericarpium, ſiliqua pedicellata, oblonga, cylindracea, unilocularis bivalvis. Semina ſubrotunda. 
 Floret, fructumque fert variis anni temporibus. 
